--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/6.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/6.xlsx
@@ -548,7 +548,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="2">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="2">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="2">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="2">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
